--- a/src/resources/monthlyBill.xlsx
+++ b/src/resources/monthlyBill.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bytenoob/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bytenoob/Documents/shnu_resident/shnu-resident/src/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB976512-18F5-9741-B696-C842690FCC10}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FDDCCE9-3859-2F4D-AE4D-FD26BC087601}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14160" yWindow="6720" windowWidth="27640" windowHeight="16940" xr2:uid="{7F4FDF73-B027-3543-8D94-BFA69A2F7168}"/>
+    <workbookView xWindow="17980" yWindow="12740" windowWidth="27640" windowHeight="16940" xr2:uid="{7F4FDF73-B027-3543-8D94-BFA69A2F7168}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -67,37 +67,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color indexed="63"/>
-      <name val="微软雅黑"/>
+      <name val="SimSun"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="SimSun"/>
       <charset val="134"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="SimSun"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="微软雅黑"/>
+      <name val="SimSun"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -151,33 +139,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -500,41 +485,41 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="20">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
     </row>
-    <row r="2" spans="1:4" ht="18">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="36">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>7</v>
       </c>
     </row>
